--- a/src/main/resources/templates/FinalReportTemlate.xlsx
+++ b/src/main/resources/templates/FinalReportTemlate.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0E5D3F-D02A-4EB8-80A6-7CB97AF1EFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91995D9-5B29-4984-9F9F-53466F286C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>消息面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息面/2周（小于4的假期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{行业-次数}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +248,14 @@
   </si>
   <si>
     <t>{#fe主线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离最近的长假日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息面15天内的消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,11 +342,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -630,20 +634,20 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
@@ -652,262 +656,264 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -920,14 +926,14 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -970,16 +976,16 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -989,19 +995,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -1215,4 +1221,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F09D5-A857-4EF3-88F5-CE2661D7591E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" activeCellId="1" sqref="C29 C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/templates/FinalReportTemlate.xlsx
+++ b/src/main/resources/templates/FinalReportTemlate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91995D9-5B29-4984-9F9F-53466F286C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C9D544-398B-4DF5-9C02-420524453027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,7 +634,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
